--- a/doc/詳細設計/list_URL一覧.xlsx
+++ b/doc/詳細設計/list_URL一覧.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j504u16\Documents\GroupList\00.転送・編集\google\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\GroupList\doc\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12300" windowHeight="6600" tabRatio="769" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12300" windowHeight="6600" tabRatio="769" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="trips" sheetId="3" r:id="rId4"/>
     <sheet name="plans" sheetId="9" r:id="rId5"/>
     <sheet name="dive_logs" sheetId="10" r:id="rId6"/>
+    <sheet name="他" sheetId="12" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="453">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1270,39 +1271,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>グループ一覧まだ</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除時にユーザー名をxxx_is_deletedへ</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除時にグループ名をxxx_is_deletedへ</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/admin/user.php</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1667,10 +1635,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/admin/error</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2134,12 +2098,182 @@
   </si>
   <si>
     <t>/divelogs/deleted_detail</t>
+  </si>
+  <si>
+    <t>/users/new</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/users/item/list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/users/item/group</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規投稿</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人投稿一覧</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ別投稿一覧</t>
+    <rPh sb="4" eb="5">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リダイレクト先の選択のみ</t>
+    <rPh sb="6" eb="7">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemGroup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>items/error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/admin/error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者でない場合のエラーページ</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>itemController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>items</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>groupitem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date_items</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加グループごとのページ</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーから日別に表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒベツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CalendarController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dateItems</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calendar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Serviceで処理、Controllerは値を渡すだけ</t>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールの設定がまだのため未設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2699,7 +2833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2844,18 +2978,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2865,9 +2987,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2895,18 +3014,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2922,15 +3029,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2947,9 +3045,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
@@ -2961,18 +3056,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3015,6 +3098,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3030,10 +3122,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3356,7 +3574,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -3441,7 +3659,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="90" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -3468,7 +3686,7 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="104"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="13" t="s">
         <v>139</v>
       </c>
@@ -3489,7 +3707,7 @@
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="104"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="13" t="s">
         <v>140</v>
       </c>
@@ -3510,7 +3728,7 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="104"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -3521,7 +3739,7 @@
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="90" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -3548,7 +3766,7 @@
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="104"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="20" t="s">
         <v>144</v>
       </c>
@@ -3573,7 +3791,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="104"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="13" t="s">
         <v>145</v>
       </c>
@@ -3596,7 +3814,7 @@
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="104"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="22" t="s">
         <v>146</v>
       </c>
@@ -3623,7 +3841,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="104"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="22"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -3634,11 +3852,11 @@
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="104"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -3654,14 +3872,16 @@
         <v>165</v>
       </c>
       <c r="H13" s="36"/>
-      <c r="I13" s="23"/>
+      <c r="I13" s="138" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="104"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="51" t="s">
         <v>88</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -3680,11 +3900,11 @@
       <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="104"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -3703,11 +3923,11 @@
       <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="104"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="51" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -3726,11 +3946,11 @@
       <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="104"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="51" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -3749,11 +3969,11 @@
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="104"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="52" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -3772,7 +3992,7 @@
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="104"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -3812,14 +4032,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -3837,604 +4057,669 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="102" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="28"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="113" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="106"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="33"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="117"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="106"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="114"/>
+      <c r="B5" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="118" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="118" t="s">
         <v>151</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="106"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="23"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="106"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="114"/>
+      <c r="B7" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="118" t="s">
         <v>168</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="118" t="s">
         <v>152</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="106"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="114"/>
+      <c r="B8" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="118" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="23"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="106"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="114"/>
+      <c r="B9" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="24" t="s">
-        <v>236</v>
-      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="122"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="106"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="114"/>
+      <c r="B10" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="118" t="s">
         <v>169</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="118" t="s">
         <v>153</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="106"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="23"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="106"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="114"/>
+      <c r="B12" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="118" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="106"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="23"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="106"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="114"/>
+      <c r="B14" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="118" t="s">
         <v>170</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="106"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="114"/>
+      <c r="B15" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="14"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="122"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="106"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="114"/>
+      <c r="B16" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="118" t="s">
         <v>157</v>
       </c>
-      <c r="I16" s="23"/>
+      <c r="I16" s="58"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="106"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="23"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="58"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="106"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="114"/>
+      <c r="B18" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="118" t="s">
         <v>170</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="58"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="106"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="114"/>
+      <c r="B19" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="23"/>
+      <c r="I19" s="58"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="106"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="114"/>
+      <c r="B20" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="14"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="122"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="106"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="114"/>
+      <c r="B21" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="118" t="s">
         <v>157</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="58"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="106"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="106"/>
-      <c r="B23" s="44" t="s">
+      <c r="A23" s="114"/>
+      <c r="B23" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="118" t="s">
         <v>168</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="I23" s="47"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="106"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="106"/>
-      <c r="B25" s="44" t="s">
+      <c r="A25" s="114"/>
+      <c r="B25" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="118" t="s">
         <v>168</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="H25" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="I25" s="47"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="106"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="114"/>
+      <c r="B26" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="56"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="106"/>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="114"/>
+      <c r="B27" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="H27" s="46" t="s">
+      <c r="H27" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="I27" s="47"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="106"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="47"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="107"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="17"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="53" t="s">
+        <v>424</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>427</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="57"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="56" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="114"/>
+      <c r="B30" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>431</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="G30" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="61"/>
+      <c r="I30" s="59"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="114"/>
+      <c r="B31" s="54" t="s">
+        <v>426</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>429</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>431</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>434</v>
+      </c>
+      <c r="G31" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="61"/>
+      <c r="I31" s="59"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="123"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="127"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B33" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C33" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="27"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:A29"/>
+    <mergeCell ref="A3:A32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4449,7 +4734,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -4467,1835 +4752,1827 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="102" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="111" t="s">
         <v>230</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="111" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" s="112" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" s="113"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="114"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="117"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="114"/>
+      <c r="B5" s="115" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="116" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="I5" s="117"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="114"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="117"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="114"/>
+      <c r="B7" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="118" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="58"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="114"/>
+      <c r="B8" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="119" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="119" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="I8" s="65"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="114"/>
+      <c r="B9" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="65"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="114"/>
+      <c r="B10" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="114"/>
+      <c r="B11" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="65"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="114"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="59"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="114"/>
+      <c r="B13" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="118" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="118" t="s">
+        <v>226</v>
+      </c>
+      <c r="I13" s="58"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="114"/>
+      <c r="B14" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="59"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="114"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="59"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="114"/>
+      <c r="B16" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="118" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="I16" s="59"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="114"/>
+      <c r="B17" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="H17" s="121"/>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="114"/>
+      <c r="B18" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="114"/>
+      <c r="B19" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="65"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="114"/>
+      <c r="B20" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="C20" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="65"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="114"/>
+      <c r="B21" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="65"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="114"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="59"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="114"/>
+      <c r="B23" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" s="118" t="s">
+        <v>323</v>
+      </c>
+      <c r="G23" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="106"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="33"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="106"/>
-      <c r="B5" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>315</v>
-      </c>
-      <c r="I5" s="33"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="106"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="33"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="106"/>
-      <c r="B7" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="106"/>
-      <c r="B8" s="72" t="s">
-        <v>317</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>321</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="F8" s="75" t="s">
+      <c r="H23" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="I23" s="59"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="114"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="59"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="114"/>
+      <c r="B25" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="G8" s="75" t="s">
-        <v>260</v>
-      </c>
-      <c r="H8" s="76" t="s">
+      <c r="F25" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="118" t="s">
         <v>258</v>
       </c>
-      <c r="I8" s="77"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="106"/>
-      <c r="B9" s="72" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>322</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="77"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="106"/>
-      <c r="B10" s="72" t="s">
-        <v>319</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="I10" s="77" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="106"/>
-      <c r="B11" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="77"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="106"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="64"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="106"/>
-      <c r="B13" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="106"/>
-      <c r="B14" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="I14" s="47"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="106"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="106"/>
-      <c r="B16" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="I16" s="47"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="106"/>
-      <c r="B17" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="61"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="106"/>
-      <c r="B18" s="72" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>321</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="E18" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="77"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="106"/>
-      <c r="B19" s="72" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>322</v>
-      </c>
-      <c r="D19" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="77"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="106"/>
-      <c r="B20" s="72" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="D20" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="E20" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="F20" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="77"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="106"/>
-      <c r="B21" s="72" t="s">
-        <v>284</v>
-      </c>
-      <c r="C21" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="D21" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="77"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="106"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="64"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="106"/>
-      <c r="B23" s="59" t="s">
-        <v>325</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="I23" s="64"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="106"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="64"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="106"/>
-      <c r="B25" s="87" t="s">
+      <c r="H25" s="118"/>
+      <c r="I25" s="58"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="114"/>
+      <c r="B26" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="23"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="106"/>
-      <c r="B26" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="30" t="s">
         <v>77</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="H26" s="43"/>
+      <c r="I26" s="122"/>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="114"/>
+      <c r="B27" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" s="118" t="s">
+        <v>204</v>
+      </c>
+      <c r="H27" s="118" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="58"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="114"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="58"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="114"/>
+      <c r="B29" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="118" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="118" t="s">
+        <v>209</v>
+      </c>
+      <c r="I29" s="58"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="114"/>
+      <c r="B30" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="119" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" s="119"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="65"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="114"/>
+      <c r="B31" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="119"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="65"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="114"/>
+      <c r="B32" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="119"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="65"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="114"/>
+      <c r="B33" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="119"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="65"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="114"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="59"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="114"/>
+      <c r="B35" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="I35" s="59" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="114"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="58"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="114"/>
+      <c r="B37" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="G37" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="I37" s="58"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="114"/>
+      <c r="B38" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="122"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="114"/>
+      <c r="B39" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" s="118" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" s="118" t="s">
+        <v>191</v>
+      </c>
+      <c r="I39" s="58"/>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="114"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="58"/>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="114"/>
+      <c r="B41" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F41" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" s="118" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="I41" s="59"/>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="114"/>
+      <c r="B42" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="F42" s="119" t="s">
+        <v>286</v>
+      </c>
+      <c r="G42" s="119" t="s">
+        <v>292</v>
+      </c>
+      <c r="H42" s="120"/>
+      <c r="I42" s="65"/>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="114"/>
+      <c r="B43" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" s="65"/>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="114"/>
+      <c r="B44" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" s="65"/>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="114"/>
+      <c r="B45" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45" s="65"/>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="114"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="59"/>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="114"/>
+      <c r="B47" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="G47" s="118" t="s">
+        <v>160</v>
+      </c>
+      <c r="H47" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="I47" s="59"/>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="114"/>
+      <c r="B48" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C48" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D48" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="F48" s="119" t="s">
+        <v>302</v>
+      </c>
+      <c r="G48" s="119" t="s">
+        <v>292</v>
+      </c>
+      <c r="H48" s="120"/>
+      <c r="I48" s="65"/>
+    </row>
+    <row r="49" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="114"/>
+      <c r="B49" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="I49" s="65"/>
+    </row>
+    <row r="50" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="114"/>
+      <c r="B50" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="I50" s="65"/>
+    </row>
+    <row r="51" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="114"/>
+      <c r="B51" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="I51" s="65"/>
+    </row>
+    <row r="52" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="114"/>
+      <c r="B52" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="D52" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F52" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="H52" s="121"/>
+      <c r="I52" s="56"/>
+    </row>
+    <row r="53" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="114"/>
+      <c r="B53" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="G53" s="118" t="s">
+        <v>204</v>
+      </c>
+      <c r="H53" s="118" t="s">
+        <v>147</v>
+      </c>
+      <c r="I53" s="59"/>
+    </row>
+    <row r="54" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="114"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="59"/>
+    </row>
+    <row r="55" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="114"/>
+      <c r="B55" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="D55" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F55" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="59"/>
+    </row>
+    <row r="56" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="114"/>
+      <c r="B56" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="C56" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="D56" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="56"/>
+    </row>
+    <row r="57" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="114"/>
+      <c r="B57" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="C57" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="G57" s="118" t="s">
+        <v>204</v>
+      </c>
+      <c r="H57" s="118" t="s">
+        <v>147</v>
+      </c>
+      <c r="I57" s="59"/>
+    </row>
+    <row r="58" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="114"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="59"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="114"/>
+      <c r="B59" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F59" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="G59" s="118" t="s">
+        <v>212</v>
+      </c>
+      <c r="H59" s="118" t="s">
+        <v>213</v>
+      </c>
+      <c r="I59" s="58" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="114"/>
+      <c r="B60" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="G60" s="118" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="I60" s="58"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="114"/>
+      <c r="B61" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="122"/>
+    </row>
+    <row r="62" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="114"/>
+      <c r="B62" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="G62" s="118" t="s">
+        <v>204</v>
+      </c>
+      <c r="H62" s="118" t="s">
+        <v>191</v>
+      </c>
+      <c r="I62" s="59" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="114"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="59"/>
+    </row>
+    <row r="64" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="114"/>
+      <c r="B64" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="D64" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F64" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="G64" s="118" t="s">
+        <v>160</v>
+      </c>
+      <c r="H64" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="I64" s="59"/>
+    </row>
+    <row r="65" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="114"/>
+      <c r="B65" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D65" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="E65" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="F65" s="119" t="s">
+        <v>250</v>
+      </c>
+      <c r="G65" s="119"/>
+      <c r="H65" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="I65" s="65"/>
+    </row>
+    <row r="66" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="114"/>
+      <c r="B66" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="C66" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D66" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" s="119"/>
+      <c r="H66" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="I66" s="65"/>
+    </row>
+    <row r="67" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="114"/>
+      <c r="B67" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="D67" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="E67" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F67" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="G67" s="120"/>
+      <c r="H67" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="I67" s="65"/>
+    </row>
+    <row r="68" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="114"/>
+      <c r="B68" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="D68" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="120"/>
+      <c r="H68" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="I68" s="65"/>
+    </row>
+    <row r="69" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="114"/>
+      <c r="B69" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C69" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="D69" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="F69" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="G69" s="43"/>
+      <c r="H69" s="121"/>
+      <c r="I69" s="56"/>
+    </row>
+    <row r="70" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="114"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="59"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="123"/>
+      <c r="B71" s="124"/>
+      <c r="C71" s="125"/>
+      <c r="D71" s="125"/>
+      <c r="E71" s="125"/>
+      <c r="F71" s="125"/>
+      <c r="G71" s="126"/>
+      <c r="H71" s="126"/>
+      <c r="I71" s="127"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="111" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" s="111" t="s">
+        <v>241</v>
+      </c>
+      <c r="F72" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72" s="112" t="s">
+        <v>266</v>
+      </c>
+      <c r="H72" s="112" t="s">
+        <v>264</v>
+      </c>
+      <c r="I72" s="113"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" s="114"/>
+      <c r="B73" s="128" t="s">
+        <v>261</v>
+      </c>
+      <c r="C73" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D73" s="129" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" s="129" t="s">
+        <v>237</v>
+      </c>
+      <c r="F73" s="129" t="s">
+        <v>263</v>
+      </c>
+      <c r="G73" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73" s="131"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" s="114"/>
+      <c r="B74" s="128" t="s">
+        <v>261</v>
+      </c>
+      <c r="C74" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D74" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="E74" s="129" t="s">
+        <v>237</v>
+      </c>
+      <c r="F74" s="129" t="s">
+        <v>187</v>
+      </c>
+      <c r="G74" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="I74" s="131"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" s="114"/>
+      <c r="B75" s="128" t="s">
         <v>262</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="106"/>
-      <c r="B27" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="106"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="23"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="106"/>
-      <c r="B29" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="I29" s="23"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="106"/>
-      <c r="B30" s="72" t="s">
-        <v>282</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>321</v>
-      </c>
-      <c r="D30" s="74" t="s">
+      <c r="C75" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="D75" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="F75" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="G75" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H75" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="I75" s="131"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="114"/>
+      <c r="B76" s="128" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="D76" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="F30" s="75" t="s">
-        <v>245</v>
-      </c>
-      <c r="G30" s="75"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="77"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="106"/>
-      <c r="B31" s="72" t="s">
-        <v>282</v>
-      </c>
-      <c r="C31" s="73" t="s">
-        <v>322</v>
-      </c>
-      <c r="D31" s="74" t="s">
+      <c r="E76" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="G76" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H76" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="I76" s="131"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="114"/>
+      <c r="B77" s="132"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="133"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="134"/>
+      <c r="I77" s="135"/>
+    </row>
+    <row r="78" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="114"/>
+      <c r="B78" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="C78" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" s="55"/>
+      <c r="E78" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="F78" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="G78" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="H78" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="I78" s="59" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" s="114"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="59"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" s="114"/>
+      <c r="B80" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="C80" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F80" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="G80" s="118" t="s">
+        <v>77</v>
+      </c>
+      <c r="H80" s="118"/>
+      <c r="I80" s="58"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" s="114"/>
+      <c r="B81" s="128" t="s">
+        <v>268</v>
+      </c>
+      <c r="C81" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D81" s="129" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81" s="129" t="s">
+        <v>237</v>
+      </c>
+      <c r="F81" s="129" t="s">
+        <v>270</v>
+      </c>
+      <c r="G81" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H81" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="I81" s="136"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" s="114"/>
+      <c r="B82" s="128" t="s">
+        <v>268</v>
+      </c>
+      <c r="C82" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D82" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="77"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="106"/>
-      <c r="B32" s="72" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="D32" s="74" t="s">
+      <c r="E82" s="129" t="s">
+        <v>237</v>
+      </c>
+      <c r="F82" s="129" t="s">
+        <v>270</v>
+      </c>
+      <c r="G82" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H82" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="I82" s="136"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" s="114"/>
+      <c r="B83" s="128" t="s">
+        <v>269</v>
+      </c>
+      <c r="C83" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="D83" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="E83" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="F83" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="G83" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H83" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="I83" s="136"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" s="114"/>
+      <c r="B84" s="128" t="s">
+        <v>269</v>
+      </c>
+      <c r="C84" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="D84" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="75"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="77"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="106"/>
-      <c r="B33" s="72" t="s">
-        <v>283</v>
-      </c>
-      <c r="C33" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="D33" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="75"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="106"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="64"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="106"/>
-      <c r="B35" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F35" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="G35" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="H35" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="I35" s="64" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="106"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="106"/>
-      <c r="B37" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="106"/>
-      <c r="B38" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="106"/>
-      <c r="B39" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="106"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="106"/>
-      <c r="B41" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="C41" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F41" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="G41" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="H41" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="I41" s="47"/>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="106"/>
-      <c r="B42" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="C42" s="73" t="s">
-        <v>321</v>
-      </c>
-      <c r="D42" s="74" t="s">
-        <v>285</v>
-      </c>
-      <c r="E42" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="F42" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="G42" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="H42" s="76"/>
-      <c r="I42" s="83"/>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="106"/>
-      <c r="B43" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="C43" s="73" t="s">
-        <v>322</v>
-      </c>
-      <c r="D43" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="H43" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="I43" s="83"/>
-    </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="106"/>
-      <c r="B44" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="C44" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="D44" s="74" t="s">
-        <v>285</v>
-      </c>
-      <c r="E44" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="H44" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="I44" s="83"/>
-    </row>
-    <row r="45" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="106"/>
-      <c r="B45" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="C45" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="D45" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="H45" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="I45" s="83"/>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="106"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="47"/>
-    </row>
-    <row r="47" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="106"/>
-      <c r="B47" s="59" t="s">
-        <v>293</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>301</v>
-      </c>
-      <c r="D47" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F47" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="G47" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="H47" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="I47" s="47"/>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="106"/>
-      <c r="B48" s="78" t="s">
-        <v>302</v>
-      </c>
-      <c r="C48" s="73" t="s">
-        <v>321</v>
-      </c>
-      <c r="D48" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="F48" s="75" t="s">
-        <v>305</v>
-      </c>
-      <c r="G48" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="H48" s="76"/>
-      <c r="I48" s="83"/>
-    </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="106"/>
-      <c r="B49" s="78" t="s">
-        <v>302</v>
-      </c>
-      <c r="C49" s="73" t="s">
-        <v>322</v>
-      </c>
-      <c r="D49" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="H49" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="I49" s="83"/>
-    </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="106"/>
-      <c r="B50" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="C50" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="D50" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F50" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G50" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="H50" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="I50" s="83"/>
-    </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="106"/>
-      <c r="B51" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="C51" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="D51" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G51" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="H51" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="I51" s="83"/>
-    </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="106"/>
-      <c r="B52" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="C52" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="D52" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="F52" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="H52" s="50"/>
-      <c r="I52" s="51"/>
-    </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="106"/>
-      <c r="B53" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="H53" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I53" s="47"/>
-    </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="106"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="47"/>
-    </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="106"/>
-      <c r="B55" s="59" t="s">
-        <v>307</v>
-      </c>
-      <c r="C55" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>308</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F55" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="47"/>
-    </row>
-    <row r="56" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="106"/>
-      <c r="B56" s="58" t="s">
-        <v>307</v>
-      </c>
-      <c r="C56" s="49" t="s">
-        <v>312</v>
-      </c>
-      <c r="D56" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="51"/>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="106"/>
-      <c r="B57" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G57" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="H57" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I57" s="47"/>
-    </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="106"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="47"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" s="106"/>
-      <c r="B59" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G59" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="H59" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="I59" s="23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A60" s="106"/>
-      <c r="B60" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E60" s="8" t="s">
+      <c r="E84" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="F60" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G60" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H60" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="I60" s="23"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A61" s="106"/>
-      <c r="B61" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="106"/>
-      <c r="B62" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G62" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="H62" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="I62" s="47" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="106"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="47"/>
-    </row>
-    <row r="64" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="106"/>
-      <c r="B64" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="C64" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="G64" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="H64" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="I64" s="47"/>
-    </row>
-    <row r="65" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="106"/>
-      <c r="B65" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="C65" s="73" t="s">
-        <v>321</v>
-      </c>
-      <c r="D65" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="E65" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="F65" s="75" t="s">
-        <v>253</v>
-      </c>
-      <c r="G65" s="75"/>
-      <c r="H65" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="I65" s="83"/>
-    </row>
-    <row r="66" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="106"/>
-      <c r="B66" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="C66" s="73" t="s">
-        <v>322</v>
-      </c>
-      <c r="D66" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" s="75"/>
-      <c r="H66" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="I66" s="83"/>
-    </row>
-    <row r="67" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="106"/>
-      <c r="B67" s="78" t="s">
-        <v>252</v>
-      </c>
-      <c r="C67" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="D67" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="E67" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="F67" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="I67" s="83"/>
-    </row>
-    <row r="68" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="106"/>
-      <c r="B68" s="78" t="s">
-        <v>252</v>
-      </c>
-      <c r="C68" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="D68" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="F68" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="I68" s="83"/>
-    </row>
-    <row r="69" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="106"/>
-      <c r="B69" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="C69" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="D69" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="F69" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="G69" s="37"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="61"/>
-    </row>
-    <row r="70" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="106"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="47"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" s="107"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="17"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G72" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="H72" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="I72" s="12"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73" s="106"/>
-      <c r="B73" s="79" t="s">
-        <v>264</v>
-      </c>
-      <c r="C73" s="73" t="s">
-        <v>321</v>
-      </c>
-      <c r="D73" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E73" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="F73" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="G73" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H73" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I73" s="84"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" s="106"/>
-      <c r="B74" s="79" t="s">
-        <v>264</v>
-      </c>
-      <c r="C74" s="73" t="s">
-        <v>322</v>
-      </c>
-      <c r="D74" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="E74" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="F74" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="G74" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H74" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I74" s="84"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75" s="106"/>
-      <c r="B75" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="C75" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="D75" s="81" t="s">
-        <v>239</v>
-      </c>
-      <c r="E75" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F75" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G75" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H75" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I75" s="84"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" s="106"/>
-      <c r="B76" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="C76" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="D76" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E76" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F76" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G76" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H76" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I76" s="84"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" s="106"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="68"/>
-    </row>
-    <row r="78" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="106"/>
-      <c r="B78" s="59" t="s">
-        <v>263</v>
-      </c>
-      <c r="C78" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="D78" s="60"/>
-      <c r="E78" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="F78" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="G78" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="H78" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="I78" s="64" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" s="106"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="47"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" s="106"/>
-      <c r="B80" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C80" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G80" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H80" s="36"/>
-      <c r="I80" s="23"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" s="106"/>
-      <c r="B81" s="79" t="s">
-        <v>271</v>
-      </c>
-      <c r="C81" s="73" t="s">
-        <v>321</v>
-      </c>
-      <c r="D81" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E81" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="F81" s="80" t="s">
-        <v>273</v>
-      </c>
-      <c r="G81" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H81" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I81" s="85"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82" s="106"/>
-      <c r="B82" s="79" t="s">
-        <v>271</v>
-      </c>
-      <c r="C82" s="73" t="s">
-        <v>322</v>
-      </c>
-      <c r="D82" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="E82" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="F82" s="80" t="s">
-        <v>273</v>
-      </c>
-      <c r="G82" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H82" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I82" s="85"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" s="106"/>
-      <c r="B83" s="79" t="s">
-        <v>272</v>
-      </c>
-      <c r="C83" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="D83" s="81" t="s">
-        <v>239</v>
-      </c>
-      <c r="E83" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F83" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G83" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H83" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I83" s="85"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" s="106"/>
-      <c r="B84" s="79" t="s">
-        <v>272</v>
-      </c>
-      <c r="C84" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="D84" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E84" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F84" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G84" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H84" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I84" s="85"/>
+      <c r="F84" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="G84" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H84" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="I84" s="136"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85" s="106"/>
-      <c r="B85" s="13" t="s">
+      <c r="A85" s="114"/>
+      <c r="B85" s="50" t="s">
         <v>75</v>
       </c>
       <c r="C85" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E85" s="9" t="s">
+      <c r="D85" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E85" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="37" t="s">
+      <c r="F85" s="30"/>
+      <c r="G85" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="H85" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="I85" s="14"/>
+      <c r="H85" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="I85" s="122"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A86" s="106"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="17"/>
+      <c r="A86" s="114"/>
+      <c r="B86" s="124"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="125"/>
+      <c r="E86" s="125"/>
+      <c r="F86" s="125"/>
+      <c r="G86" s="126"/>
+      <c r="H86" s="126"/>
+      <c r="I86" s="127"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B87" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="27"/>
+      <c r="B87" s="104"/>
+      <c r="C87" s="105"/>
+      <c r="D87" s="106"/>
+      <c r="E87" s="106"/>
+      <c r="F87" s="106"/>
+      <c r="G87" s="107"/>
+      <c r="H87" s="107"/>
+      <c r="I87" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6313,9 +6590,9 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -6362,7 +6639,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="74" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="25"/>
@@ -6375,11 +6652,11 @@
       <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="91" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>10</v>
@@ -6389,120 +6666,120 @@
         <v>79</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="92"/>
+      <c r="B4" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>357</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="71"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="92"/>
+      <c r="B5" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="D5" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="71"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="94"/>
+      <c r="B6" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="64" t="s">
         <v>336</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="D6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="71"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="94"/>
+      <c r="B7" s="77" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="64" t="s">
         <v>337</v>
       </c>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="106"/>
-      <c r="B4" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="80" t="s">
+      <c r="D7" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>361</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="84"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="106"/>
-      <c r="B5" s="79" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>339</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="81" t="s">
+      <c r="E7" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="84"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="108"/>
-      <c r="B6" s="94" t="s">
-        <v>331</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>340</v>
-      </c>
-      <c r="D6" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="84"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="108"/>
-      <c r="B7" s="94" t="s">
-        <v>334</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>341</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="84"/>
+      <c r="F7" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="108"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="92"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="39"/>
@@ -6511,34 +6788,34 @@
       <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="108"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>343</v>
+        <v>338</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>339</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>79</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="108"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="31"/>
-      <c r="C10" s="95"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="39"/>
@@ -6547,28 +6824,28 @@
       <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="108"/>
-      <c r="B11" s="96" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" s="97" t="s">
-        <v>347</v>
-      </c>
-      <c r="D11" s="98" t="s">
-        <v>314</v>
-      </c>
-      <c r="E11" s="98" t="s">
+      <c r="A11" s="94"/>
+      <c r="B11" s="79" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="99" t="s">
-        <v>348</v>
-      </c>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="100"/>
+      <c r="F11" s="82" t="s">
+        <v>344</v>
+      </c>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="106"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="31"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -6579,78 +6856,78 @@
       <c r="I12" s="33"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="106"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="22" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>79</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="106"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="22" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>77</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="106"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="13" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>77</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="106"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="31"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
@@ -6661,81 +6938,81 @@
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="106"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I17" s="23"/>
-      <c r="J17" s="109"/>
+      <c r="J17" s="95"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="106"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>77</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I18" s="23"/>
-      <c r="J18" s="109"/>
+      <c r="J18" s="95"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="106"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="13" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="109"/>
+      <c r="J19" s="95"/>
     </row>
     <row r="20" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="106"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="22"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -6744,50 +7021,50 @@
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="101"/>
+      <c r="J20" s="84"/>
     </row>
     <row r="21" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="106"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="22" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I21" s="23"/>
-      <c r="J21" s="101"/>
+      <c r="J21" s="84"/>
     </row>
     <row r="22" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="106"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="13" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>77</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>77</v>
@@ -6796,7 +7073,7 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="106"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="22"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -6805,138 +7082,138 @@
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
       <c r="I23" s="23"/>
-      <c r="J23" s="101"/>
+      <c r="J23" s="84"/>
     </row>
     <row r="24" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="106"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>79</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="84"/>
+    </row>
+    <row r="25" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="92"/>
+      <c r="B25" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="C25" s="85" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="F25" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="72"/>
+      <c r="J25" s="84"/>
+    </row>
+    <row r="26" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="92"/>
+      <c r="B26" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="85" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="72"/>
+      <c r="J26" s="84"/>
+    </row>
+    <row r="27" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="92"/>
+      <c r="B27" s="77" t="s">
         <v>360</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="C27" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="H24" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="101"/>
-    </row>
-    <row r="25" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="106"/>
-      <c r="B25" s="79" t="s">
-        <v>362</v>
-      </c>
-      <c r="C25" s="102" t="s">
-        <v>338</v>
-      </c>
-      <c r="D25" s="81" t="s">
+      <c r="D27" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="81" t="s">
-        <v>240</v>
-      </c>
-      <c r="F25" s="81" t="s">
-        <v>273</v>
-      </c>
-      <c r="G25" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="85"/>
-      <c r="J25" s="101"/>
-    </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="106"/>
-      <c r="B26" s="79" t="s">
-        <v>363</v>
-      </c>
-      <c r="C26" s="102" t="s">
-        <v>339</v>
-      </c>
-      <c r="D26" s="81" t="s">
+      <c r="E27" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="72"/>
+    </row>
+    <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="92"/>
+      <c r="B28" s="77" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" s="85" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E28" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="85"/>
-      <c r="J26" s="101"/>
-    </row>
-    <row r="27" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="106"/>
-      <c r="B27" s="94" t="s">
-        <v>364</v>
-      </c>
-      <c r="C27" s="102" t="s">
-        <v>340</v>
-      </c>
-      <c r="D27" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="85"/>
-    </row>
-    <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="106"/>
-      <c r="B28" s="94" t="s">
-        <v>365</v>
-      </c>
-      <c r="C28" s="102" t="s">
-        <v>341</v>
-      </c>
-      <c r="D28" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" s="110"/>
+      <c r="F28" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="88"/>
     </row>
     <row r="29" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="106"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="44"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -6944,33 +7221,33 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="103"/>
+      <c r="I29" s="86"/>
     </row>
     <row r="30" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="106"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="13" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>79</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H30" s="9"/>
-      <c r="I30" s="111"/>
+      <c r="I30" s="89"/>
     </row>
     <row r="31" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="106"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="44"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -6978,35 +7255,35 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="103"/>
+      <c r="I31" s="86"/>
     </row>
     <row r="32" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="106"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="I32" s="103"/>
+        <v>341</v>
+      </c>
+      <c r="I32" s="86"/>
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="106"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="44"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -7014,10 +7291,10 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="103"/>
+      <c r="I33" s="86"/>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="106"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="44"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -7025,10 +7302,10 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="103"/>
+      <c r="I34" s="86"/>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="106"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="44"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -7036,10 +7313,10 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="46"/>
-      <c r="I35" s="103"/>
+      <c r="I35" s="86"/>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="106"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="44"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -7050,7 +7327,7 @@
       <c r="I36" s="47"/>
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="106"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="44"/>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
@@ -7061,7 +7338,7 @@
       <c r="I37" s="47"/>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="106"/>
+      <c r="A38" s="92"/>
       <c r="B38" s="44"/>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
@@ -7072,7 +7349,7 @@
       <c r="I38" s="47"/>
     </row>
     <row r="39" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="106"/>
+      <c r="A39" s="92"/>
       <c r="B39" s="44"/>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
@@ -7083,7 +7360,7 @@
       <c r="I39" s="47"/>
     </row>
     <row r="40" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="106"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="44"/>
       <c r="C40" s="45"/>
       <c r="D40" s="45"/>
@@ -7094,7 +7371,7 @@
       <c r="I40" s="47"/>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="106"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="44"/>
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
@@ -7105,7 +7382,7 @@
       <c r="I41" s="47"/>
     </row>
     <row r="42" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="106"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="44"/>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
@@ -7116,7 +7393,7 @@
       <c r="I42" s="47"/>
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="106"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="44"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
@@ -7127,7 +7404,7 @@
       <c r="I43" s="47"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="107"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -7138,7 +7415,7 @@
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="74" t="s">
         <v>15</v>
       </c>
       <c r="B45" s="25" t="s">
@@ -7172,7 +7449,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -7219,7 +7496,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="73" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="25"/>
@@ -7232,24 +7509,24 @@
       <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="91" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H3" s="35" t="s">
         <v>106</v>
@@ -7257,109 +7534,109 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="106"/>
-      <c r="B4" s="79" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="80" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>403</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="84"/>
+      <c r="E4" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>399</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="106"/>
-      <c r="B5" s="79" t="s">
-        <v>371</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>339</v>
-      </c>
-      <c r="D5" s="80" t="s">
+      <c r="A5" s="92"/>
+      <c r="B5" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="84"/>
+      <c r="F5" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="108"/>
-      <c r="B6" s="94" t="s">
-        <v>372</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>340</v>
-      </c>
-      <c r="D6" s="81" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="77" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="84"/>
+      <c r="F6" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="108"/>
-      <c r="B7" s="94" t="s">
-        <v>373</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>341</v>
-      </c>
-      <c r="D7" s="81" t="s">
+      <c r="A7" s="94"/>
+      <c r="B7" s="77" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="84"/>
+      <c r="F7" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="108"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="92"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="39"/>
@@ -7368,34 +7645,34 @@
       <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="108"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>343</v>
+        <v>370</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>339</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="108"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="31"/>
-      <c r="C10" s="95"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="39"/>
@@ -7404,28 +7681,28 @@
       <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="108"/>
-      <c r="B11" s="96" t="s">
-        <v>375</v>
-      </c>
-      <c r="C11" s="97" t="s">
-        <v>347</v>
-      </c>
-      <c r="D11" s="98" t="s">
-        <v>314</v>
-      </c>
-      <c r="E11" s="98" t="s">
-        <v>386</v>
-      </c>
-      <c r="F11" s="99" t="s">
-        <v>348</v>
-      </c>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="100"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="79" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>382</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>344</v>
+      </c>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="106"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="31"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -7436,78 +7713,78 @@
       <c r="I12" s="33"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="106"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="22" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="106"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="22" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>77</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="106"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="13" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>77</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="106"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="31"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
@@ -7518,79 +7795,79 @@
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="106"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="22" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I17" s="23"/>
-      <c r="J17" s="109"/>
+      <c r="J17" s="95"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="106"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="22" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G18" s="36"/>
       <c r="H18" s="36" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I18" s="23"/>
-      <c r="J18" s="109"/>
+      <c r="J18" s="95"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="106"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="13" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="109"/>
+      <c r="J19" s="95"/>
     </row>
     <row r="20" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="106"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="22"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -7599,57 +7876,57 @@
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="101"/>
+      <c r="J20" s="84"/>
     </row>
     <row r="21" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="106"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="22" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="84"/>
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="92"/>
+      <c r="B22" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>388</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>397</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="101"/>
-    </row>
-    <row r="22" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="106"/>
-      <c r="B22" s="13" t="s">
-        <v>390</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>77</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="106"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="22"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -7658,138 +7935,138 @@
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
       <c r="I23" s="23"/>
-      <c r="J23" s="101"/>
+      <c r="J23" s="84"/>
     </row>
     <row r="24" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="106"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="84"/>
+    </row>
+    <row r="25" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="92"/>
+      <c r="B25" s="67" t="s">
+        <v>377</v>
+      </c>
+      <c r="C25" s="85" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="F25" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="72"/>
+      <c r="J25" s="84"/>
+    </row>
+    <row r="26" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="92"/>
+      <c r="B26" s="67" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" s="85" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="72"/>
+      <c r="J26" s="84"/>
+    </row>
+    <row r="27" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="92"/>
+      <c r="B27" s="77" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="85" t="s">
+        <v>336</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="72"/>
+    </row>
+    <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="92"/>
+      <c r="B28" s="77" t="s">
         <v>380</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="101"/>
-    </row>
-    <row r="25" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="106"/>
-      <c r="B25" s="79" t="s">
-        <v>381</v>
-      </c>
-      <c r="C25" s="102" t="s">
-        <v>338</v>
-      </c>
-      <c r="D25" s="81" t="s">
+      <c r="C28" s="85" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="81" t="s">
-        <v>240</v>
-      </c>
-      <c r="F25" s="81" t="s">
-        <v>273</v>
-      </c>
-      <c r="G25" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="85"/>
-      <c r="J25" s="101"/>
-    </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="106"/>
-      <c r="B26" s="79" t="s">
-        <v>382</v>
-      </c>
-      <c r="C26" s="102" t="s">
-        <v>339</v>
-      </c>
-      <c r="D26" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="81" t="s">
+      <c r="E28" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="85"/>
-      <c r="J26" s="101"/>
-    </row>
-    <row r="27" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="106"/>
-      <c r="B27" s="94" t="s">
-        <v>383</v>
-      </c>
-      <c r="C27" s="102" t="s">
-        <v>340</v>
-      </c>
-      <c r="D27" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="85"/>
-    </row>
-    <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="106"/>
-      <c r="B28" s="94" t="s">
-        <v>384</v>
-      </c>
-      <c r="C28" s="102" t="s">
-        <v>341</v>
-      </c>
-      <c r="D28" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" s="110"/>
+      <c r="F28" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="88"/>
     </row>
     <row r="29" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="106"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="44"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -7797,33 +8074,33 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="103"/>
+      <c r="I29" s="86"/>
     </row>
     <row r="30" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="106"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="13" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H30" s="9"/>
-      <c r="I30" s="111"/>
+      <c r="I30" s="89"/>
     </row>
     <row r="31" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="106"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="44"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -7831,35 +8108,35 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="103"/>
+      <c r="I31" s="86"/>
     </row>
     <row r="32" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="106"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="22" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="I32" s="103"/>
+        <v>341</v>
+      </c>
+      <c r="I32" s="86"/>
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="106"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="44"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -7867,10 +8144,10 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="103"/>
+      <c r="I33" s="86"/>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="106"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="44"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -7878,10 +8155,10 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="103"/>
+      <c r="I34" s="86"/>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="106"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="44"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -7889,10 +8166,10 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="46"/>
-      <c r="I35" s="103"/>
+      <c r="I35" s="86"/>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="106"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="44"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -7903,7 +8180,7 @@
       <c r="I36" s="47"/>
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="106"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="44"/>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
@@ -7914,7 +8191,7 @@
       <c r="I37" s="47"/>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="106"/>
+      <c r="A38" s="92"/>
       <c r="B38" s="44"/>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
@@ -7925,7 +8202,7 @@
       <c r="I38" s="47"/>
     </row>
     <row r="39" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="106"/>
+      <c r="A39" s="92"/>
       <c r="B39" s="44"/>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
@@ -7936,7 +8213,7 @@
       <c r="I39" s="47"/>
     </row>
     <row r="40" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="106"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="44"/>
       <c r="C40" s="45"/>
       <c r="D40" s="45"/>
@@ -7947,7 +8224,7 @@
       <c r="I40" s="47"/>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="106"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="44"/>
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
@@ -7958,7 +8235,7 @@
       <c r="I41" s="47"/>
     </row>
     <row r="42" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="106"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="44"/>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
@@ -7969,7 +8246,7 @@
       <c r="I42" s="47"/>
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="106"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="44"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
@@ -7980,7 +8257,7 @@
       <c r="I43" s="47"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="107"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -7991,7 +8268,7 @@
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="73" t="s">
         <v>15</v>
       </c>
       <c r="B45" s="25" t="s">
@@ -8022,10 +8299,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -8072,7 +8349,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="74" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="25"/>
@@ -8085,24 +8362,24 @@
       <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="91" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>404</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>408</v>
       </c>
       <c r="H3" s="35" t="s">
         <v>106</v>
@@ -8110,109 +8387,109 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="106"/>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>406</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="71"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="92"/>
+      <c r="B5" s="67" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="71"/>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="94"/>
+      <c r="B6" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="71"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="94"/>
+      <c r="B7" s="77" t="s">
         <v>409</v>
       </c>
-      <c r="C4" s="73" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="80" t="s">
+      <c r="C7" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>410</v>
-      </c>
-      <c r="G4" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="84"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="106"/>
-      <c r="B5" s="79" t="s">
-        <v>411</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>339</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="81" t="s">
+      <c r="E7" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="84"/>
-    </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="108"/>
-      <c r="B6" s="94" t="s">
-        <v>412</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>340</v>
-      </c>
-      <c r="D6" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="84"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="108"/>
-      <c r="B7" s="94" t="s">
-        <v>413</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>341</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="84"/>
+      <c r="F7" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="108"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="92"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="39"/>
@@ -8221,47 +8498,47 @@
       <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="108"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>343</v>
+        <v>410</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>339</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="G9" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>408</v>
-      </c>
       <c r="H9" s="39" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I9" s="33"/>
-      <c r="J9" s="109"/>
+      <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="108"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="31"/>
-      <c r="C10" s="95"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
       <c r="I10" s="33"/>
-      <c r="J10" s="109"/>
+      <c r="J10" s="95"/>
     </row>
     <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="106"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="22" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>17</v>
@@ -8270,23 +8547,23 @@
         <v>56</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G11" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>408</v>
-      </c>
       <c r="H11" s="36" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I11" s="23"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="106"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="22" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
@@ -8298,20 +8575,20 @@
         <v>77</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>77</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="106"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="13" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>12</v>
@@ -8323,14 +8600,14 @@
         <v>77</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="106"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -8341,9 +8618,9 @@
       <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="106"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="22" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>16</v>
@@ -8352,23 +8629,23 @@
         <v>56</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="G15" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>408</v>
-      </c>
       <c r="H15" s="36" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="106"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="22" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>20</v>
@@ -8380,20 +8657,20 @@
         <v>77</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>77</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="106"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="13" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>13</v>
@@ -8405,14 +8682,14 @@
         <v>77</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="106"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="22"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -8423,9 +8700,9 @@
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="106"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="22" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>18</v>
@@ -8434,23 +8711,23 @@
         <v>56</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G19" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>408</v>
-      </c>
       <c r="H19" s="36" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="106"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="13" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>11</v>
@@ -8462,7 +8739,7 @@
         <v>77</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>77</v>
@@ -8471,7 +8748,7 @@
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="106"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="22"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -8482,132 +8759,132 @@
       <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="106"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="22" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>408</v>
-      </c>
       <c r="H22" s="36" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="106"/>
-      <c r="B23" s="79" t="s">
-        <v>422</v>
-      </c>
-      <c r="C23" s="102" t="s">
-        <v>338</v>
-      </c>
-      <c r="D23" s="81" t="s">
+      <c r="A23" s="92"/>
+      <c r="B23" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="81" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23" s="81" t="s">
-        <v>273</v>
-      </c>
-      <c r="G23" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="85"/>
+      <c r="E23" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="106"/>
-      <c r="B24" s="79" t="s">
-        <v>423</v>
-      </c>
-      <c r="C24" s="102" t="s">
-        <v>339</v>
-      </c>
-      <c r="D24" s="81" t="s">
+      <c r="A24" s="92"/>
+      <c r="B24" s="67" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="85"/>
+      <c r="F24" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="106"/>
-      <c r="B25" s="94" t="s">
-        <v>424</v>
-      </c>
-      <c r="C25" s="102" t="s">
-        <v>340</v>
-      </c>
-      <c r="D25" s="81" t="s">
+      <c r="A25" s="92"/>
+      <c r="B25" s="77" t="s">
+        <v>420</v>
+      </c>
+      <c r="C25" s="85" t="s">
+        <v>336</v>
+      </c>
+      <c r="D25" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="85"/>
+      <c r="F25" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="106"/>
-      <c r="B26" s="94" t="s">
-        <v>425</v>
-      </c>
-      <c r="C26" s="102" t="s">
-        <v>341</v>
-      </c>
-      <c r="D26" s="81" t="s">
+      <c r="A26" s="92"/>
+      <c r="B26" s="77" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26" s="85" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="110"/>
+      <c r="F26" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="88"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="106"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="44"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -8615,12 +8892,12 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="103"/>
+      <c r="I27" s="86"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="106"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="13" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>233</v>
@@ -8629,19 +8906,19 @@
         <v>54</v>
       </c>
       <c r="E28" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>408</v>
-      </c>
       <c r="H28" s="9"/>
-      <c r="I28" s="111"/>
+      <c r="I28" s="89"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="106"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="44"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -8649,35 +8926,35 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="103"/>
+      <c r="I29" s="86"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="106"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="22" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E30" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>408</v>
-      </c>
       <c r="H30" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="I30" s="103"/>
+        <v>341</v>
+      </c>
+      <c r="I30" s="86"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="106"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="44"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -8685,10 +8962,10 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="103"/>
+      <c r="I31" s="86"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="106"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="44"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -8696,10 +8973,10 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="103"/>
+      <c r="I32" s="86"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="106"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="44"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -8707,10 +8984,10 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="46"/>
-      <c r="I33" s="103"/>
+      <c r="I33" s="86"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="106"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="44"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -8721,7 +8998,7 @@
       <c r="I34" s="47"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="106"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="44"/>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
@@ -8732,7 +9009,7 @@
       <c r="I35" s="47"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="106"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="44"/>
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
@@ -8743,7 +9020,7 @@
       <c r="I36" s="47"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="106"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="44"/>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
@@ -8754,7 +9031,7 @@
       <c r="I37" s="47"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="106"/>
+      <c r="A38" s="92"/>
       <c r="B38" s="44"/>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
@@ -8765,7 +9042,7 @@
       <c r="I38" s="47"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="106"/>
+      <c r="A39" s="92"/>
       <c r="B39" s="44"/>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
@@ -8776,7 +9053,7 @@
       <c r="I39" s="47"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="106"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="44"/>
       <c r="C40" s="45"/>
       <c r="D40" s="45"/>
@@ -8787,7 +9064,7 @@
       <c r="I40" s="47"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="106"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="44"/>
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
@@ -8798,7 +9075,7 @@
       <c r="I41" s="47"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="107"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="15"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -8809,7 +9086,7 @@
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="91" t="s">
+      <c r="A43" s="74" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="25" t="s">
@@ -8834,4 +9111,202 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="92"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="92"/>
+      <c r="B5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>439</v>
+      </c>
+      <c r="F5" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="92"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="92"/>
+      <c r="B7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" t="s">
+        <v>440</v>
+      </c>
+      <c r="H7" t="s">
+        <v>450</v>
+      </c>
+      <c r="I7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="92"/>
+      <c r="B8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="96" t="s">
+        <v>439</v>
+      </c>
+      <c r="F8" s="96" t="s">
+        <v>449</v>
+      </c>
+      <c r="G8" t="s">
+        <v>440</v>
+      </c>
+      <c r="H8" t="s">
+        <v>442</v>
+      </c>
+      <c r="I8" s="97"/>
+      <c r="J8" s="98"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>